--- a/public/documents/data.xlsx
+++ b/public/documents/data.xlsx
@@ -15,12 +15,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+  <si>
+    <t>Formateur</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Prestation</t>
+  </si>
+  <si>
+    <t>N° de la prestation</t>
+  </si>
+  <si>
+    <t>Civilité</t>
+  </si>
+  <si>
+    <t>Prénom stagiaire</t>
+  </si>
+  <si>
+    <t>Nom stagiaire</t>
+  </si>
+  <si>
+    <t>Email du stagiaire</t>
+  </si>
+  <si>
+    <t>N° de l'établissement</t>
+  </si>
+  <si>
+    <t>Établissement</t>
+  </si>
+  <si>
+    <t>Durée de la session</t>
+  </si>
+  <si>
+    <t>Date de session</t>
+  </si>
+  <si>
+    <t>Lieu de la session</t>
+  </si>
+  <si>
+    <t>Objectifs de la formation</t>
+  </si>
+  <si>
+    <t>MAUX Daniel, DORIAUX Florian</t>
+  </si>
+  <si>
+    <t>ssssss</t>
+  </si>
+  <si>
+    <t>Les bonnes pratiques d’hygiène selon la méthode HACCP</t>
+  </si>
+  <si>
+    <t>sssss</t>
+  </si>
+  <si>
+    <t>Mickael</t>
+  </si>
+  <si>
+    <t>BEAUFILS</t>
+  </si>
+  <si>
+    <t>Num établissement</t>
+  </si>
+  <si>
+    <t>LPP CACHIN</t>
+  </si>
+  <si>
+    <t>nbsession</t>
+  </si>
+  <si>
+    <t>horaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 50100 CHERBOURG EN COTENTIN</t>
+  </si>
+  <si>
+    <t>Apprendre le fonctionnement des Framework, Réussir sa formation</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>PORCHET</t>
+  </si>
+  <si>
+    <t>Hervieu</t>
+  </si>
+  <si>
+    <t>MARIE-PAULE</t>
+  </si>
+  <si>
+    <t>Karine</t>
+  </si>
+  <si>
+    <t>MESLIN</t>
+  </si>
+  <si>
+    <t>elocora50130@live.fr</t>
+  </si>
+  <si>
+    <t>OGEC STE MARIE DU ROULE</t>
+  </si>
+  <si>
+    <t>DORIAUX Florian</t>
+  </si>
+  <si>
+    <t>Des élèves différents mais des élèves quand même (autisme, précocité, dys-)</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>DELAUNAY</t>
+  </si>
+  <si>
+    <t>avranches.ogec.joseph@orange.fr</t>
+  </si>
+  <si>
+    <t>Sainte Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 50100 CHERBOURG</t>
+  </si>
+  <si>
+    <t>Réussir sa formation, Trouver rapidement des informations</t>
+  </si>
+  <si>
+    <t>Severine</t>
+  </si>
+  <si>
+    <t>BARBOTTE</t>
+  </si>
+  <si>
+    <t>Bail</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>Huguette</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>LEHODEY</t>
+  </si>
+  <si>
+    <t>Veronique</t>
+  </si>
+  <si>
+    <t>TURKOVICS</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>SEILLE</t>
+  </si>
+  <si>
+    <t>ROUSSEL</t>
+  </si>
+  <si>
+    <t>LECOMPAGNON</t>
+  </si>
+  <si>
+    <t>Saint Joseph</t>
+  </si>
+  <si>
+    <t>Cecile</t>
+  </si>
+  <si>
+    <t>LECHARTIER</t>
+  </si>
+  <si>
+    <t>Pascale</t>
+  </si>
+  <si>
+    <t>HUARD</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>DUFOUR</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>BAYARD</t>
+  </si>
+  <si>
+    <t>Marie-laure</t>
+  </si>
+  <si>
+    <t>LEROUX</t>
+  </si>
+  <si>
+    <t>Benoit</t>
+  </si>
+  <si>
+    <t>LANGLOIS</t>
+  </si>
+  <si>
+    <t>LEMEE</t>
+  </si>
+  <si>
+    <t>Thierry</t>
+  </si>
+  <si>
+    <t>GRANDGUILLOT</t>
+  </si>
+  <si>
+    <t>Marylene</t>
+  </si>
+  <si>
+    <t>TOUROUL</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>KERBAUL</t>
+  </si>
+  <si>
+    <t>Corinne</t>
+  </si>
+  <si>
+    <t>DUGUEY</t>
   </si>
 </sst>
 </file>
@@ -28,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -38,14 +266,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EC7063"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="A3E4D7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -56,8 +305,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -359,84 +617,1123 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="34.134521" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="89.549561" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="75.410156" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
